--- a/document/V1.0/功能性.xlsx
+++ b/document/V1.0/功能性.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="医务人员管理" sheetId="1" r:id="rId1"/>
     <sheet name="菜单" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="人员部门岗位" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
     <t>sys_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,12 +351,88 @@
     <t>邮政编码(籍贯)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>机构管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧机构树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧人员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查询用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.添加用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.删除用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击树显示本级及下级人员列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +452,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,9 +482,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -704,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1066,15 +1151,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -1140,6 +1226,11 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1150,13 +1241,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>